--- a/TestData/test_Data.xlsx
+++ b/TestData/test_Data.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="7060" windowHeight="1440"/>
+    <workbookView windowWidth="22400" windowHeight="10150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="user_login" sheetId="2" r:id="rId1"/>
+    <sheet name="AddNew" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>userName</t>
   </si>
@@ -47,6 +48,147 @@
   </si>
   <si>
     <t>Notmin</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Date of birth</t>
+  </si>
+  <si>
+    <t>Company name</t>
+  </si>
+  <si>
+    <t>Newsletter</t>
+  </si>
+  <si>
+    <t>Admin comment</t>
+  </si>
+  <si>
+    <t>zsol001@gmail.com</t>
+  </si>
+  <si>
+    <t>test1234</t>
+  </si>
+  <si>
+    <t>Khosruz</t>
+  </si>
+  <si>
+    <t>Zaman</t>
+  </si>
+  <si>
+    <t>Click On Zsolution</t>
+  </si>
+  <si>
+    <t>Actively pressed</t>
+  </si>
+  <si>
+    <t>Approved for a admin</t>
+  </si>
+  <si>
+    <t>zsol002@gmail.com</t>
+  </si>
+  <si>
+    <t>test1235</t>
+  </si>
+  <si>
+    <t>Miraz</t>
+  </si>
+  <si>
+    <t>Approved for a Guest</t>
+  </si>
+  <si>
+    <t>zsol003@gmail.com</t>
+  </si>
+  <si>
+    <t>test1236</t>
+  </si>
+  <si>
+    <t>Salam</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Not Pressed</t>
+  </si>
+  <si>
+    <t>Approved for a Registered</t>
+  </si>
+  <si>
+    <t>zsol004@gmail.com</t>
+  </si>
+  <si>
+    <t>test1237</t>
+  </si>
+  <si>
+    <t>Kalam</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>Approved for a Forum Member</t>
+  </si>
+  <si>
+    <t>zsol005@gmail.com</t>
+  </si>
+  <si>
+    <t>test1238</t>
+  </si>
+  <si>
+    <t>Alim</t>
+  </si>
+  <si>
+    <t>Uddin</t>
+  </si>
+  <si>
+    <t>Approved for a Vendors</t>
+  </si>
+  <si>
+    <t>zsol006@gmail.com</t>
+  </si>
+  <si>
+    <t>test1239</t>
+  </si>
+  <si>
+    <t>Jamil</t>
+  </si>
+  <si>
+    <t>Khan</t>
+  </si>
+  <si>
+    <t>Approved for a Admin</t>
+  </si>
+  <si>
+    <t>zsol007@gmail.com</t>
+  </si>
+  <si>
+    <t>test1240</t>
+  </si>
+  <si>
+    <t>Kamil</t>
+  </si>
+  <si>
+    <t>zsol008@gmail.com</t>
+  </si>
+  <si>
+    <t>test1241</t>
+  </si>
+  <si>
+    <t>Samil</t>
+  </si>
+  <si>
+    <t>Talukdar</t>
   </si>
 </sst>
 </file>
@@ -54,12 +196,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +210,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,76 +232,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,6 +306,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -175,6 +321,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -182,22 +344,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -208,13 +363,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,156 +383,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -397,12 +557,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -410,12 +564,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,37 +596,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,16 +644,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,7 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,135 +715,165 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyBorder="1">
@@ -1025,8 +1203,8 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1037,57 +1215,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1101,4 +1279,275 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="19.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="10.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="10.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="15.7272727272727" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="15.5454545454545" customWidth="1"/>
+    <col min="8" max="8" width="29.9090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="17.5" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="10">
+        <v>32875</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="10">
+        <v>44416</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="10">
+        <v>36534</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="10">
+        <v>32303</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="10">
+        <v>35076</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="10">
+        <v>32541</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="10">
+        <v>34948</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="10">
+        <v>27740</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="zsol002@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId1" display="zsol003@gmail.com"/>
+    <hyperlink ref="A5" r:id="rId1" display="zsol004@gmail.com"/>
+    <hyperlink ref="A6" r:id="rId1" display="zsol005@gmail.com"/>
+    <hyperlink ref="A7" r:id="rId1" display="zsol006@gmail.com"/>
+    <hyperlink ref="A8" r:id="rId1" display="zsol007@gmail.com"/>
+    <hyperlink ref="A9" r:id="rId1" display="zsol008@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="zsol001@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>